--- a/Code/Results/Cases/Case_9_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.140050324343946</v>
+        <v>1.088714353562466</v>
       </c>
       <c r="C2">
-        <v>0.1218232799353061</v>
+        <v>0.1215476318819952</v>
       </c>
       <c r="D2">
-        <v>0.06352348521447126</v>
+        <v>0.06402209591070829</v>
       </c>
       <c r="E2">
-        <v>0.07621029754873021</v>
+        <v>0.06553927263325221</v>
       </c>
       <c r="F2">
-        <v>1.329791500934036</v>
+        <v>1.044635890974234</v>
       </c>
       <c r="G2">
-        <v>1.324984000124928</v>
+        <v>0.98821842044768</v>
       </c>
       <c r="H2">
-        <v>0.009503823207734088</v>
+        <v>0.006993714249705407</v>
       </c>
       <c r="I2">
-        <v>0.01764856607135501</v>
+        <v>0.01258114789830866</v>
       </c>
       <c r="J2">
-        <v>0.8662282892945683</v>
+        <v>0.7063059923711421</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3271202083528166</v>
       </c>
       <c r="M2">
-        <v>0.8999213710623337</v>
+        <v>0.2730130563866773</v>
       </c>
       <c r="N2">
-        <v>0.2462467000759574</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9644775023430441</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.264132018660348</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9931850189921931</v>
+        <v>0.9497930903723955</v>
       </c>
       <c r="C3">
-        <v>0.1132507803362124</v>
+        <v>0.1092403322850402</v>
       </c>
       <c r="D3">
-        <v>0.06182134325494992</v>
+        <v>0.0608980383643356</v>
       </c>
       <c r="E3">
-        <v>0.06776586603550427</v>
+        <v>0.05897384236937242</v>
       </c>
       <c r="F3">
-        <v>1.238338725023752</v>
+        <v>0.9885212174370395</v>
       </c>
       <c r="G3">
-        <v>1.235932418948735</v>
+        <v>0.9425889538893557</v>
       </c>
       <c r="H3">
-        <v>0.0126903506894952</v>
+        <v>0.009463752979107967</v>
       </c>
       <c r="I3">
-        <v>0.02223694422027478</v>
+        <v>0.01588906955542413</v>
       </c>
       <c r="J3">
-        <v>0.8278521559560943</v>
+        <v>0.6824143065927046</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3248014929728313</v>
       </c>
       <c r="M3">
-        <v>0.7827345781400368</v>
+        <v>0.2591222046648163</v>
       </c>
       <c r="N3">
-        <v>0.2146713963216627</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8379351077687147</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2306706561089129</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9029681040176172</v>
+        <v>0.8642788928236769</v>
       </c>
       <c r="C4">
-        <v>0.1080039657323084</v>
+        <v>0.101818468960758</v>
       </c>
       <c r="D4">
-        <v>0.06073595369493034</v>
+        <v>0.05897741582126059</v>
       </c>
       <c r="E4">
-        <v>0.06255179562699809</v>
+        <v>0.05490122278398601</v>
       </c>
       <c r="F4">
-        <v>1.182301043682742</v>
+        <v>0.9540291500004372</v>
       </c>
       <c r="G4">
-        <v>1.18117391768638</v>
+        <v>0.9145672866686709</v>
       </c>
       <c r="H4">
-        <v>0.01495484706513245</v>
+        <v>0.01122922889575666</v>
       </c>
       <c r="I4">
-        <v>0.02546394985906142</v>
+        <v>0.01823823459938412</v>
       </c>
       <c r="J4">
-        <v>0.804305825701249</v>
+        <v>0.6674796714510478</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3230354352151465</v>
       </c>
       <c r="M4">
-        <v>0.7110420290835435</v>
+        <v>0.2512265254214654</v>
       </c>
       <c r="N4">
-        <v>0.1953471925046841</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7604686687242577</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2101823227597492</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8657843545028072</v>
+        <v>0.8290266753053572</v>
       </c>
       <c r="C5">
-        <v>0.1059569393996753</v>
+        <v>0.09901105756832607</v>
       </c>
       <c r="D5">
-        <v>0.06030097711163407</v>
+        <v>0.05824201159436626</v>
       </c>
       <c r="E5">
-        <v>0.06033289598163805</v>
+        <v>0.05316223340738269</v>
       </c>
       <c r="F5">
-        <v>1.157505620813112</v>
+        <v>0.9384430879836216</v>
       </c>
       <c r="G5">
-        <v>1.156549840075442</v>
+        <v>0.9014504651736104</v>
       </c>
       <c r="H5">
-        <v>0.01595987928872911</v>
+        <v>0.01201483028108487</v>
       </c>
       <c r="I5">
-        <v>0.0269789849157922</v>
+        <v>0.01938171939826105</v>
       </c>
       <c r="J5">
-        <v>0.7935436208857709</v>
+        <v>0.6604291468226506</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3216529386300806</v>
       </c>
       <c r="M5">
-        <v>0.6822807884267377</v>
+        <v>0.2477368655244661</v>
       </c>
       <c r="N5">
-        <v>0.1875687264669921</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7293094819552408</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2019184984140168</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8591182139238924</v>
+        <v>0.8227478532664634</v>
       </c>
       <c r="C6">
-        <v>0.1057292499943934</v>
+        <v>0.098777228824936</v>
       </c>
       <c r="D6">
-        <v>0.06025030848883084</v>
+        <v>0.05817949509412657</v>
       </c>
       <c r="E6">
-        <v>0.05985899627357583</v>
+        <v>0.05278929059159587</v>
       </c>
       <c r="F6">
-        <v>1.150971392122059</v>
+        <v>0.9340044273131127</v>
       </c>
       <c r="G6">
-        <v>1.14967297799214</v>
+        <v>0.897209920754932</v>
       </c>
       <c r="H6">
-        <v>0.01614075940393084</v>
+        <v>0.0121561668140194</v>
       </c>
       <c r="I6">
-        <v>0.02736688456904623</v>
+        <v>0.01971822181313243</v>
       </c>
       <c r="J6">
-        <v>0.7903304238933799</v>
+        <v>0.6581586617833182</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3207155176809238</v>
       </c>
       <c r="M6">
-        <v>0.677997601118733</v>
+        <v>0.2466411198782481</v>
       </c>
       <c r="N6">
-        <v>0.1863802148816518</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7245794730674646</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2006372009200987</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.901120697129727</v>
+        <v>0.862777324746844</v>
       </c>
       <c r="C7">
-        <v>0.1082825341948492</v>
+        <v>0.1022924725265923</v>
       </c>
       <c r="D7">
-        <v>0.0607917867350789</v>
+        <v>0.05923179711169624</v>
       </c>
       <c r="E7">
-        <v>0.06223440090152366</v>
+        <v>0.05466238171299942</v>
       </c>
       <c r="F7">
-        <v>1.175356572936693</v>
+        <v>0.9459272201555535</v>
       </c>
       <c r="G7">
-        <v>1.173224007636293</v>
+        <v>0.9112443063330034</v>
       </c>
       <c r="H7">
-        <v>0.01499284178064253</v>
+        <v>0.01126715186996117</v>
       </c>
       <c r="I7">
-        <v>0.02582109414324041</v>
+        <v>0.01863500507507965</v>
       </c>
       <c r="J7">
-        <v>0.8002652844133991</v>
+        <v>0.6567853192404414</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.320265984474787</v>
       </c>
       <c r="M7">
-        <v>0.7119930699910526</v>
+        <v>0.2490421400870204</v>
       </c>
       <c r="N7">
-        <v>0.1955226114845914</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7610648355642127</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2102751516289914</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.087604617370431</v>
+        <v>1.039731912657572</v>
       </c>
       <c r="C8">
-        <v>0.1192740259180312</v>
+        <v>0.1177306776882006</v>
       </c>
       <c r="D8">
-        <v>0.0630337095824185</v>
+        <v>0.06353065870041874</v>
       </c>
       <c r="E8">
-        <v>0.07291999596388266</v>
+        <v>0.06302567248478397</v>
       </c>
       <c r="F8">
-        <v>1.289468463832932</v>
+        <v>1.009286597635267</v>
       </c>
       <c r="G8">
-        <v>1.284192821834338</v>
+        <v>0.9734218331387723</v>
       </c>
       <c r="H8">
-        <v>0.01056298815243945</v>
+        <v>0.007834372329839939</v>
       </c>
       <c r="I8">
-        <v>0.01954287089326456</v>
+        <v>0.01413196518350013</v>
       </c>
       <c r="J8">
-        <v>0.8478425657948065</v>
+        <v>0.6693237490390658</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3213556297918103</v>
       </c>
       <c r="M8">
-        <v>0.861234996967795</v>
+        <v>0.2637135557718153</v>
       </c>
       <c r="N8">
-        <v>0.2357183527346507</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9217547209929364</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2527674670753868</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.455869325508587</v>
+        <v>1.386957673673692</v>
       </c>
       <c r="C9">
-        <v>0.140552850676869</v>
+        <v>0.1485081564408475</v>
       </c>
       <c r="D9">
-        <v>0.06699275364054458</v>
+        <v>0.07127172133176884</v>
       </c>
       <c r="E9">
-        <v>0.09421132756163786</v>
+        <v>0.07949081161743621</v>
       </c>
       <c r="F9">
-        <v>1.526495080868031</v>
+        <v>1.152830769305311</v>
       </c>
       <c r="G9">
-        <v>1.515265995979661</v>
+        <v>1.096645485422982</v>
       </c>
       <c r="H9">
-        <v>0.004431820288057331</v>
+        <v>0.00313429260222009</v>
       </c>
       <c r="I9">
-        <v>0.01016024961176232</v>
+        <v>0.007349425512401808</v>
       </c>
       <c r="J9">
-        <v>0.9484244669692714</v>
+        <v>0.7242346266795607</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3270451387272786</v>
       </c>
       <c r="M9">
-        <v>1.154099996559097</v>
+        <v>0.3027899913734657</v>
       </c>
       <c r="N9">
-        <v>0.3146901198590939</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.237664630039887</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3363849070489522</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.721064644712357</v>
+        <v>1.637894899674734</v>
       </c>
       <c r="C10">
-        <v>0.1579193550667028</v>
+        <v>0.1739819395117621</v>
       </c>
       <c r="D10">
-        <v>0.07021065765391654</v>
+        <v>0.07881936798386135</v>
       </c>
       <c r="E10">
-        <v>0.104026736850809</v>
+        <v>0.08663966610906826</v>
       </c>
       <c r="F10">
-        <v>1.666903496143078</v>
+        <v>1.218810164037805</v>
       </c>
       <c r="G10">
-        <v>1.644910155583602</v>
+        <v>1.176086088503354</v>
       </c>
       <c r="H10">
-        <v>0.002027500732305398</v>
+        <v>0.001412222700095445</v>
       </c>
       <c r="I10">
-        <v>0.005874527538203722</v>
+        <v>0.004446147183882587</v>
       </c>
       <c r="J10">
-        <v>1.002256559807478</v>
+        <v>0.7085172698885032</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3185808318380907</v>
       </c>
       <c r="M10">
-        <v>1.377262965476064</v>
+        <v>0.3223897335590209</v>
       </c>
       <c r="N10">
-        <v>0.3566906516667814</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.475017303600936</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3806232803185168</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.792022437038042</v>
+        <v>1.716879343670684</v>
       </c>
       <c r="C11">
-        <v>0.1819375449042866</v>
+        <v>0.2082393873862713</v>
       </c>
       <c r="D11">
-        <v>0.07842907737032334</v>
+        <v>0.09526696856298855</v>
       </c>
       <c r="E11">
-        <v>0.06647433641378697</v>
+        <v>0.05488403576043055</v>
       </c>
       <c r="F11">
-        <v>1.452971498409298</v>
+        <v>1.038078905557953</v>
       </c>
       <c r="G11">
-        <v>1.387217075625699</v>
+        <v>1.026099839653099</v>
       </c>
       <c r="H11">
-        <v>0.02060147740322193</v>
+        <v>0.02003212186121317</v>
       </c>
       <c r="I11">
-        <v>0.00560216466426855</v>
+        <v>0.00454717548533079</v>
       </c>
       <c r="J11">
-        <v>0.8664969413901815</v>
+        <v>0.5457160561777386</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2574212994316554</v>
       </c>
       <c r="M11">
-        <v>1.526155429365218</v>
+        <v>0.2649931616822059</v>
       </c>
       <c r="N11">
-        <v>0.2443101115361515</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.617396888051076</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2621870496699472</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.797144061682076</v>
+        <v>1.731301733059183</v>
       </c>
       <c r="C12">
-        <v>0.2042376162544599</v>
+        <v>0.234652354598424</v>
       </c>
       <c r="D12">
-        <v>0.08786366908531562</v>
+        <v>0.109465143048908</v>
       </c>
       <c r="E12">
-        <v>0.04298569881703962</v>
+        <v>0.03584702023096398</v>
       </c>
       <c r="F12">
-        <v>1.264971730089684</v>
+        <v>0.8986532789765675</v>
       </c>
       <c r="G12">
-        <v>1.17223553849243</v>
+        <v>0.890583215172029</v>
       </c>
       <c r="H12">
-        <v>0.05949230712721487</v>
+        <v>0.05888550264529613</v>
       </c>
       <c r="I12">
-        <v>0.005535664039861388</v>
+        <v>0.004493291742860173</v>
       </c>
       <c r="J12">
-        <v>0.7551823006985501</v>
+        <v>0.4552693611853158</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2181457245067477</v>
       </c>
       <c r="M12">
-        <v>1.604785379319338</v>
+        <v>0.2220569683921845</v>
       </c>
       <c r="N12">
-        <v>0.1588203551534022</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.687701793414391</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1719958468743954</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.749638586766338</v>
+        <v>1.694508017236643</v>
       </c>
       <c r="C13">
-        <v>0.2266218750299345</v>
+        <v>0.2577706802995863</v>
       </c>
       <c r="D13">
-        <v>0.09868497316900005</v>
+        <v>0.1216189598575923</v>
       </c>
       <c r="E13">
-        <v>0.02850911198875483</v>
+        <v>0.02511220301492489</v>
       </c>
       <c r="F13">
-        <v>1.075965999094095</v>
+        <v>0.777818835063762</v>
       </c>
       <c r="G13">
-        <v>0.9660577252032425</v>
+        <v>0.7462503836210459</v>
       </c>
       <c r="H13">
-        <v>0.115694831386179</v>
+        <v>0.1149639277309404</v>
       </c>
       <c r="I13">
-        <v>0.006037630247274883</v>
+        <v>0.004793652402347526</v>
       </c>
       <c r="J13">
-        <v>0.6502025902139792</v>
+        <v>0.4088229770609146</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1896229925435691</v>
       </c>
       <c r="M13">
-        <v>1.635164248777329</v>
+        <v>0.1862892756036238</v>
       </c>
       <c r="N13">
-        <v>0.08994511971829411</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.708335703977554</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.09913538026401625</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.692356978935834</v>
+        <v>1.64534312061906</v>
       </c>
       <c r="C14">
-        <v>0.2432290734637661</v>
+        <v>0.2731310627501671</v>
       </c>
       <c r="D14">
-        <v>0.1072852115585192</v>
+        <v>0.1292161790551631</v>
       </c>
       <c r="E14">
-        <v>0.02379287124955326</v>
+        <v>0.02258352001725417</v>
       </c>
       <c r="F14">
-        <v>0.9442967535216411</v>
+        <v>0.700020260454437</v>
       </c>
       <c r="G14">
-        <v>0.8275250980591693</v>
+        <v>0.6440860302973164</v>
       </c>
       <c r="H14">
-        <v>0.1654784519434997</v>
+        <v>0.1646141513941615</v>
       </c>
       <c r="I14">
-        <v>0.006775090372777015</v>
+        <v>0.005294711278708064</v>
       </c>
       <c r="J14">
-        <v>0.580360311176733</v>
+        <v>0.3907095172183332</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1736863403644442</v>
       </c>
       <c r="M14">
-        <v>1.635045710022581</v>
+        <v>0.1644895736212675</v>
       </c>
       <c r="N14">
-        <v>0.05222122516066463</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.700647394297505</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.05899445215243304</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.666843496907831</v>
+        <v>1.622147541986891</v>
       </c>
       <c r="C15">
-        <v>0.2468810432780089</v>
+        <v>0.2761284233279184</v>
       </c>
       <c r="D15">
-        <v>0.1093729517614008</v>
+        <v>0.1303850672490015</v>
       </c>
       <c r="E15">
-        <v>0.02329213069616132</v>
+        <v>0.02258010711034952</v>
       </c>
       <c r="F15">
-        <v>0.908905010140586</v>
+        <v>0.6815550902233056</v>
       </c>
       <c r="G15">
-        <v>0.7916727359097422</v>
+        <v>0.6159756742141127</v>
       </c>
       <c r="H15">
-        <v>0.1781920410706874</v>
+        <v>0.1772648358183346</v>
       </c>
       <c r="I15">
-        <v>0.007243310474644105</v>
+        <v>0.005668405474662741</v>
       </c>
       <c r="J15">
-        <v>0.5627088515164047</v>
+        <v>0.3910356205528274</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1706056849438653</v>
       </c>
       <c r="M15">
-        <v>1.624936286981324</v>
+        <v>0.1595857811998265</v>
       </c>
       <c r="N15">
-        <v>0.04428741412720427</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.688399021564464</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.05051866344020439</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.56243688602035</v>
+        <v>1.520338637652117</v>
       </c>
       <c r="C16">
-        <v>0.2343876388663517</v>
+        <v>0.2614004172430384</v>
       </c>
       <c r="D16">
-        <v>0.105417116888475</v>
+        <v>0.1214327113906037</v>
       </c>
       <c r="E16">
-        <v>0.02248065266867427</v>
+        <v>0.02191076470625042</v>
       </c>
       <c r="F16">
-        <v>0.8866634097186505</v>
+        <v>0.692366989199563</v>
       </c>
       <c r="G16">
-        <v>0.777677352007089</v>
+        <v>0.5938311116400001</v>
       </c>
       <c r="H16">
-        <v>0.166527569033704</v>
+        <v>0.1652811175978712</v>
       </c>
       <c r="I16">
-        <v>0.009061526063778302</v>
+        <v>0.006935068482563089</v>
       </c>
       <c r="J16">
-        <v>0.560350931462807</v>
+        <v>0.4384325359736181</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1789084563555967</v>
       </c>
       <c r="M16">
-        <v>1.521727652279509</v>
+        <v>0.1637462613767724</v>
       </c>
       <c r="N16">
-        <v>0.04280472671406699</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.583165584879595</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.04911637337736963</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.512778203378417</v>
+        <v>1.468613965094306</v>
       </c>
       <c r="C17">
-        <v>0.2155972988275465</v>
+        <v>0.2414834868734914</v>
       </c>
       <c r="D17">
-        <v>0.09762641409881923</v>
+        <v>0.1112577241579089</v>
       </c>
       <c r="E17">
-        <v>0.02336341650747853</v>
+        <v>0.02182598498140431</v>
       </c>
       <c r="F17">
-        <v>0.9376942951614211</v>
+        <v>0.7398092166112917</v>
       </c>
       <c r="G17">
-        <v>0.8379770722564786</v>
+        <v>0.6308560110578867</v>
       </c>
       <c r="H17">
-        <v>0.1293629649041605</v>
+        <v>0.1279392792951342</v>
       </c>
       <c r="I17">
-        <v>0.01012971077557889</v>
+        <v>0.007704431823997382</v>
       </c>
       <c r="J17">
-        <v>0.5944981517211971</v>
+        <v>0.4840390581248357</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1941965920926805</v>
       </c>
       <c r="M17">
-        <v>1.442985445353258</v>
+        <v>0.1775440007487532</v>
       </c>
       <c r="N17">
-        <v>0.05961471177125333</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.506539271925533</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.06721845106770274</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.505238811109024</v>
+        <v>1.45441917212915</v>
       </c>
       <c r="C18">
-        <v>0.1912641758008391</v>
+        <v>0.215913325330277</v>
       </c>
       <c r="D18">
-        <v>0.08688509936808941</v>
+        <v>0.09896375904551036</v>
       </c>
       <c r="E18">
-        <v>0.03068244491339289</v>
+        <v>0.02670722058273167</v>
       </c>
       <c r="F18">
-        <v>1.068334281124166</v>
+        <v>0.836304242927902</v>
       </c>
       <c r="G18">
-        <v>0.9832328163820421</v>
+        <v>0.7275289877416498</v>
       </c>
       <c r="H18">
-        <v>0.07659838940683272</v>
+        <v>0.07515457023887251</v>
       </c>
       <c r="I18">
-        <v>0.0101552229575903</v>
+        <v>0.007620169445896607</v>
       </c>
       <c r="J18">
-        <v>0.6709168723771484</v>
+        <v>0.5463642642774573</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2214804737479703</v>
       </c>
       <c r="M18">
-        <v>1.375688718934072</v>
+        <v>0.2051315640657485</v>
       </c>
       <c r="N18">
-        <v>0.1033381248242975</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.445517383062878</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1138112051932083</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.529308542402589</v>
+        <v>1.468875360463358</v>
       </c>
       <c r="C19">
-        <v>0.1701840954660696</v>
+        <v>0.1922673501783265</v>
       </c>
       <c r="D19">
-        <v>0.07735048736862637</v>
+        <v>0.08769504761608715</v>
       </c>
       <c r="E19">
-        <v>0.04973668297298595</v>
+        <v>0.04173851892801927</v>
       </c>
       <c r="F19">
-        <v>1.254636378224333</v>
+        <v>0.9661524756392765</v>
       </c>
       <c r="G19">
-        <v>1.191088547030077</v>
+        <v>0.8653386600568638</v>
       </c>
       <c r="H19">
-        <v>0.03076819569070466</v>
+        <v>0.0294674913553834</v>
       </c>
       <c r="I19">
-        <v>0.00986247525531958</v>
+        <v>0.007505750784383203</v>
       </c>
       <c r="J19">
-        <v>0.7777391492086281</v>
+        <v>0.6215256918365952</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2578908469040009</v>
       </c>
       <c r="M19">
-        <v>1.326289896211051</v>
+        <v>0.2433789621117413</v>
       </c>
       <c r="N19">
-        <v>0.1802483131428687</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.404789555240626</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.195133931415981</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.646731882397944</v>
+        <v>1.567659100542812</v>
       </c>
       <c r="C20">
-        <v>0.1544728984982058</v>
+        <v>0.1700645568481747</v>
       </c>
       <c r="D20">
-        <v>0.06967413835609193</v>
+        <v>0.07707974631404113</v>
       </c>
       <c r="E20">
-        <v>0.1003111635428944</v>
+        <v>0.08381615919402918</v>
       </c>
       <c r="F20">
-        <v>1.608061600248362</v>
+        <v>1.195341705122246</v>
       </c>
       <c r="G20">
-        <v>1.585683901417724</v>
+        <v>1.127970602923355</v>
       </c>
       <c r="H20">
-        <v>0.002555106305901056</v>
+        <v>0.00176702906914894</v>
       </c>
       <c r="I20">
-        <v>0.007759290346164072</v>
+        <v>0.006125801101953599</v>
       </c>
       <c r="J20">
-        <v>0.9753345301589889</v>
+        <v>0.7291466118530963</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3183463928019137</v>
       </c>
       <c r="M20">
-        <v>1.322918861680051</v>
+        <v>0.3144453324572467</v>
       </c>
       <c r="N20">
-        <v>0.3458069994232886</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.417286461996099</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3691845751409915</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.859891169135665</v>
+        <v>1.769429153405099</v>
       </c>
       <c r="C21">
-        <v>0.1659094409186466</v>
+        <v>0.1835813859817961</v>
       </c>
       <c r="D21">
-        <v>0.07132484511974013</v>
+        <v>0.08378793645195515</v>
       </c>
       <c r="E21">
-        <v>0.1167426336978501</v>
+        <v>0.09710912066987021</v>
       </c>
       <c r="F21">
-        <v>1.770386238647689</v>
+        <v>1.230767431861125</v>
       </c>
       <c r="G21">
-        <v>1.747503641591521</v>
+        <v>1.280873048743842</v>
       </c>
       <c r="H21">
-        <v>0.0008603915998086631</v>
+        <v>0.0005443995812564051</v>
       </c>
       <c r="I21">
-        <v>0.004916668643490496</v>
+        <v>0.004246947929729572</v>
       </c>
       <c r="J21">
-        <v>1.048235753055735</v>
+        <v>0.6122710979246619</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3098626447259463</v>
       </c>
       <c r="M21">
-        <v>1.486653513342503</v>
+        <v>0.3274713111312835</v>
       </c>
       <c r="N21">
-        <v>0.4040734745533712</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.589692100446598</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4295658983509298</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.998691847240934</v>
+        <v>1.901221161605378</v>
       </c>
       <c r="C22">
-        <v>0.1737206919542444</v>
+        <v>0.1927286903019905</v>
       </c>
       <c r="D22">
-        <v>0.07249959224030178</v>
+        <v>0.08883051308205125</v>
       </c>
       <c r="E22">
-        <v>0.1250278097053439</v>
+        <v>0.1037128095743007</v>
       </c>
       <c r="F22">
-        <v>1.869379331645646</v>
+        <v>1.245194761056851</v>
       </c>
       <c r="G22">
-        <v>1.844823201500873</v>
+        <v>1.382968488192091</v>
       </c>
       <c r="H22">
-        <v>0.0002925479959654531</v>
+        <v>0.000165081325282701</v>
       </c>
       <c r="I22">
-        <v>0.003280522370991079</v>
+        <v>0.002999430421009031</v>
       </c>
       <c r="J22">
-        <v>1.091636321056285</v>
+        <v>0.5351554656689785</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3022005057878161</v>
       </c>
       <c r="M22">
-        <v>1.595125149332233</v>
+        <v>0.3336379936131237</v>
       </c>
       <c r="N22">
-        <v>0.4334220203705144</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.70290494608895</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4598108977161104</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.926264433241897</v>
+        <v>1.831956076473602</v>
       </c>
       <c r="C23">
-        <v>0.1691347378541366</v>
+        <v>0.1872997773356246</v>
       </c>
       <c r="D23">
-        <v>0.0717723021792871</v>
+        <v>0.08544875925485229</v>
       </c>
       <c r="E23">
-        <v>0.1209560299812402</v>
+        <v>0.1004129846663808</v>
       </c>
       <c r="F23">
-        <v>1.824304422384927</v>
+        <v>1.2501955006868</v>
       </c>
       <c r="G23">
-        <v>1.801846944656148</v>
+        <v>1.327469292979401</v>
       </c>
       <c r="H23">
-        <v>0.0005527558049438497</v>
+        <v>0.0003339649416549406</v>
       </c>
       <c r="I23">
-        <v>0.00376571192161812</v>
+        <v>0.003227192672476065</v>
       </c>
       <c r="J23">
-        <v>1.073006807478691</v>
+        <v>0.593210765664665</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3096010522950365</v>
       </c>
       <c r="M23">
-        <v>1.535557606093676</v>
+        <v>0.3342903018330148</v>
       </c>
       <c r="N23">
-        <v>0.4173996535975988</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.64151244263914</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4434704529002289</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.650082000617715</v>
+        <v>1.569656226555537</v>
       </c>
       <c r="C24">
-        <v>0.1526844813561965</v>
+        <v>0.1666960026805526</v>
       </c>
       <c r="D24">
-        <v>0.06911590046577132</v>
+        <v>0.07582441852999722</v>
       </c>
       <c r="E24">
-        <v>0.1050231419713761</v>
+        <v>0.08779206531545825</v>
       </c>
       <c r="F24">
-        <v>1.642630077152816</v>
+        <v>1.220038556877697</v>
       </c>
       <c r="G24">
-        <v>1.625853555488874</v>
+        <v>1.15491662140289</v>
       </c>
       <c r="H24">
-        <v>0.002341703680315055</v>
+        <v>0.001575593812149112</v>
       </c>
       <c r="I24">
-        <v>0.00716077384435998</v>
+        <v>0.005451250324826518</v>
       </c>
       <c r="J24">
-        <v>0.9958103670568903</v>
+        <v>0.7443862727361505</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3261210247350093</v>
       </c>
       <c r="M24">
-        <v>1.313891218170141</v>
+        <v>0.3225367383406237</v>
       </c>
       <c r="N24">
-        <v>0.3576301012594456</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.4092129708024</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3816736860483445</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.353643550152185</v>
+        <v>1.290798432952698</v>
       </c>
       <c r="C25">
-        <v>0.1353327769656758</v>
+        <v>0.1414664846680438</v>
       </c>
       <c r="D25">
-        <v>0.06609263022310685</v>
+        <v>0.06936928396934405</v>
       </c>
       <c r="E25">
-        <v>0.08793352101469054</v>
+        <v>0.07463007321882742</v>
       </c>
       <c r="F25">
-        <v>1.450180673284365</v>
+        <v>1.109045306407054</v>
       </c>
       <c r="G25">
-        <v>1.438919034489402</v>
+        <v>1.049636489275684</v>
       </c>
       <c r="H25">
-        <v>0.005816869625674737</v>
+        <v>0.004177117014554366</v>
       </c>
       <c r="I25">
-        <v>0.01283727793918743</v>
+        <v>0.009468738301156243</v>
       </c>
       <c r="J25">
-        <v>0.9141434764187295</v>
+        <v>0.7150313011220675</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.323933736518164</v>
       </c>
       <c r="M25">
-        <v>1.076957850664911</v>
+        <v>0.2898328282412734</v>
       </c>
       <c r="N25">
-        <v>0.2937488733265781</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.154395820714797</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3142024767908111</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
